--- a/data/trans_orig/P36BPD09_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0B3212-B374-42B7-B37B-1E897FCFDA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6961DD69-FE7E-4FCA-A3C3-F70ADDA43A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{238420D8-32BC-4A59-8490-E25C4E3B34E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DA54EEA-250C-4C86-A160-8FD35574481A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>6,73%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
@@ -104,28 +104,28 @@
     <t>69,46%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>68,19%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>Tres o más por semana</t>
@@ -134,28 +134,28 @@
     <t>19,69%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>10,38%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>22,96%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -251,37 +251,34 @@
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
   </si>
   <si>
     <t>68,16%</t>
@@ -290,43 +287,40 @@
     <t>64,8%</t>
   </si>
   <si>
-    <t>71,29%</t>
+    <t>71,62%</t>
   </si>
   <si>
     <t>66,93%</t>
   </si>
   <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>28,11%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -335,79 +329,79 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>61,7%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>48,46%</t>
   </si>
   <si>
     <t>63,59%</t>
   </si>
   <si>
-    <t>59,85%</t>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -416,46 +410,46 @@
     <t>7,71%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>61,77%</t>
   </si>
   <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
   </si>
   <si>
     <t>63,12%</t>
@@ -464,31 +458,34 @@
     <t>60,66%</t>
   </si>
   <si>
+    <t>65,46%</t>
+  </si>
+  <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -497,46 +494,49 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>44,48%</t>
+    <t>45,78%</t>
   </si>
   <si>
     <t>62,54%</t>
@@ -545,16 +545,16 @@
     <t>30,34%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>40,5%</t>
   </si>
   <si>
-    <t>32,58%</t>
+    <t>32,42%</t>
   </si>
   <si>
     <t>58,71%</t>
@@ -563,85 +563,91 @@
     <t>36,39%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>8,02%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>66,16%</t>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>63,39%</t>
   </si>
   <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1056,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850E7777-6510-4D38-8E38-E5EA8BF6D57B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B7E8A6-96CE-499E-A843-D1ED63867A33}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1613,7 +1619,7 @@
         <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
@@ -1622,13 +1628,13 @@
         <v>85625</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,13 +1649,13 @@
         <v>365757</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>582</v>
@@ -1658,28 +1664,28 @@
         <v>396863</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>941</v>
       </c>
       <c r="N13" s="7">
-        <v>762620</v>
+        <v>762619</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,13 +1700,13 @@
         <v>150470</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -1709,13 +1715,13 @@
         <v>140757</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>349</v>
@@ -1724,13 +1730,13 @@
         <v>291227</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,7 +1778,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1139471</v>
+        <v>1139470</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1798,13 +1804,13 @@
         <v>37431</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -1813,13 +1819,13 @@
         <v>46111</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -1828,13 +1834,13 @@
         <v>83542</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1855,13 @@
         <v>446134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7">
         <v>749</v>
@@ -1864,13 +1870,13 @@
         <v>474436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>1198</v>
@@ -1879,13 +1885,13 @@
         <v>920570</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,13 +1906,13 @@
         <v>239504</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>322</v>
@@ -1915,13 +1921,13 @@
         <v>225578</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>501</v>
@@ -1930,13 +1936,13 @@
         <v>465082</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,7 +1998,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2004,13 +2010,13 @@
         <v>46121</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -2019,13 +2025,13 @@
         <v>34416</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -2034,13 +2040,13 @@
         <v>80537</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2061,13 @@
         <v>369392</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>656</v>
@@ -2070,13 +2076,13 @@
         <v>384456</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>1072</v>
@@ -2085,13 +2091,13 @@
         <v>753848</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2112,13 @@
         <v>182526</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>289</v>
@@ -2121,13 +2127,13 @@
         <v>177491</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -2136,13 +2142,13 @@
         <v>360017</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2204,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2210,13 +2216,13 @@
         <v>40732</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -2240,13 +2246,13 @@
         <v>97988</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,10 +2440,10 @@
         <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>589</v>
@@ -2446,13 +2452,13 @@
         <v>522887</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2473,13 @@
         <v>2169436</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>3454</v>
@@ -2482,13 +2488,13 @@
         <v>2382121</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>5662</v>
@@ -2497,13 +2503,13 @@
         <v>4551557</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2524,13 @@
         <v>959260</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>1540</v>
@@ -2533,13 +2539,13 @@
         <v>1146190</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>2471</v>
@@ -2548,13 +2554,13 @@
         <v>2105450</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2616,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD09_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6961DD69-FE7E-4FCA-A3C3-F70ADDA43A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63041A2E-4D7B-4652-9975-2FB6E7AAAADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DA54EEA-250C-4C86-A160-8FD35574481A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B061367F-C6E1-4D5B-81A6-072866F3A69F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="231">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -65,589 +65,667 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>Una o dos a la semana</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>Tres o más por semana</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>Una o dos a la semana</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>Tres o más por semana</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1062,8 +1140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B7E8A6-96CE-499E-A843-D1ED63867A33}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741CC33A-34F1-4D77-B804-EBA3FF6A81EA}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1183,7 +1261,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>40986</v>
+        <v>42273</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1198,7 +1276,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>40817</v>
+        <v>34322</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1213,7 +1291,7 @@
         <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>81803</v>
+        <v>76594</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1234,7 +1312,7 @@
         <v>122</v>
       </c>
       <c r="D5" s="7">
-        <v>262322</v>
+        <v>280789</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1249,7 +1327,7 @@
         <v>136</v>
       </c>
       <c r="I5" s="7">
-        <v>236133</v>
+        <v>209539</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1264,7 +1342,7 @@
         <v>258</v>
       </c>
       <c r="N5" s="7">
-        <v>498455</v>
+        <v>490328</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1285,7 +1363,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>74371</v>
+        <v>76925</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1300,7 +1378,7 @@
         <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>76318</v>
+        <v>67756</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1315,7 +1393,7 @@
         <v>78</v>
       </c>
       <c r="N6" s="7">
-        <v>150689</v>
+        <v>144681</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1336,7 +1414,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1351,7 +1429,7 @@
         <v>206</v>
       </c>
       <c r="I7" s="7">
-        <v>353268</v>
+        <v>311617</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1366,7 +1444,7 @@
         <v>378</v>
       </c>
       <c r="N7" s="7">
-        <v>730947</v>
+        <v>711604</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1389,7 +1467,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>44487</v>
+        <v>43306</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1404,7 +1482,7 @@
         <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>48905</v>
+        <v>43411</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1419,7 +1497,7 @@
         <v>74</v>
       </c>
       <c r="N8" s="7">
-        <v>93392</v>
+        <v>86717</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1440,7 +1518,7 @@
         <v>205</v>
       </c>
       <c r="D9" s="7">
-        <v>282418</v>
+        <v>279969</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1455,7 +1533,7 @@
         <v>310</v>
       </c>
       <c r="I9" s="7">
-        <v>338304</v>
+        <v>366427</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1470,7 +1548,7 @@
         <v>515</v>
       </c>
       <c r="N9" s="7">
-        <v>620722</v>
+        <v>646396</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1491,7 +1569,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>101492</v>
+        <v>100272</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1506,7 +1584,7 @@
         <v>104</v>
       </c>
       <c r="I10" s="7">
-        <v>111367</v>
+        <v>101666</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1521,7 +1599,7 @@
         <v>173</v>
       </c>
       <c r="N10" s="7">
-        <v>212859</v>
+        <v>201938</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1542,7 +1620,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1557,7 +1635,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1572,7 +1650,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1595,7 +1673,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>41025</v>
+        <v>39183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1610,7 +1688,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>44600</v>
+        <v>41321</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1619,22 +1697,22 @@
         <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>85625</v>
+        <v>80505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,46 +1724,46 @@
         <v>359</v>
       </c>
       <c r="D13" s="7">
-        <v>365757</v>
+        <v>351620</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>582</v>
       </c>
       <c r="I13" s="7">
-        <v>396863</v>
+        <v>369890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>941</v>
       </c>
       <c r="N13" s="7">
-        <v>762619</v>
+        <v>721510</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,46 +1775,46 @@
         <v>149</v>
       </c>
       <c r="D14" s="7">
-        <v>150470</v>
+        <v>145535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
       </c>
       <c r="I14" s="7">
-        <v>140757</v>
+        <v>130068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>349</v>
       </c>
       <c r="N14" s="7">
-        <v>291227</v>
+        <v>275603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1826,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1763,7 +1841,7 @@
         <v>844</v>
       </c>
       <c r="I15" s="7">
-        <v>582219</v>
+        <v>541279</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1778,7 +1856,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1139470</v>
+        <v>1077618</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1792,7 +1870,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1801,46 +1879,46 @@
         <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>37431</v>
+        <v>33752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>46111</v>
+        <v>42232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
       </c>
       <c r="N16" s="7">
-        <v>83542</v>
+        <v>75984</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,46 +1930,46 @@
         <v>449</v>
       </c>
       <c r="D17" s="7">
-        <v>446134</v>
+        <v>430040</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>749</v>
       </c>
       <c r="I17" s="7">
-        <v>474436</v>
+        <v>438498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>1198</v>
       </c>
       <c r="N17" s="7">
-        <v>920570</v>
+        <v>868538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,46 +1981,46 @@
         <v>179</v>
       </c>
       <c r="D18" s="7">
-        <v>239504</v>
+        <v>423116</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>322</v>
       </c>
       <c r="I18" s="7">
-        <v>225578</v>
+        <v>231084</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>501</v>
       </c>
       <c r="N18" s="7">
-        <v>465082</v>
+        <v>654200</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,7 +2032,7 @@
         <v>664</v>
       </c>
       <c r="D19" s="7">
-        <v>723069</v>
+        <v>886908</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1969,7 +2047,7 @@
         <v>1139</v>
       </c>
       <c r="I19" s="7">
-        <v>746125</v>
+        <v>711815</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1984,7 +2062,7 @@
         <v>1803</v>
       </c>
       <c r="N19" s="7">
-        <v>1469194</v>
+        <v>1598723</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1998,7 +2076,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2007,46 +2085,46 @@
         <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>46121</v>
+        <v>42994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
       </c>
       <c r="I20" s="7">
-        <v>34416</v>
+        <v>31206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
       </c>
       <c r="N20" s="7">
-        <v>80537</v>
+        <v>74201</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,46 +2136,46 @@
         <v>416</v>
       </c>
       <c r="D21" s="7">
-        <v>369392</v>
+        <v>345044</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>656</v>
       </c>
       <c r="I21" s="7">
-        <v>384456</v>
+        <v>352962</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>1072</v>
       </c>
       <c r="N21" s="7">
-        <v>753848</v>
+        <v>698007</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,46 +2187,46 @@
         <v>194</v>
       </c>
       <c r="D22" s="7">
-        <v>182526</v>
+        <v>171175</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>289</v>
       </c>
       <c r="I22" s="7">
-        <v>177491</v>
+        <v>163094</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
       </c>
       <c r="N22" s="7">
-        <v>360017</v>
+        <v>334270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2238,7 @@
         <v>661</v>
       </c>
       <c r="D23" s="7">
-        <v>598039</v>
+        <v>559214</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2175,7 +2253,7 @@
         <v>1001</v>
       </c>
       <c r="I23" s="7">
-        <v>596363</v>
+        <v>547263</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2190,7 +2268,7 @@
         <v>1662</v>
       </c>
       <c r="N23" s="7">
-        <v>1194402</v>
+        <v>1106477</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2204,55 +2282,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>40732</v>
+        <v>21461</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="I24" s="7">
-        <v>57255</v>
+        <v>22913</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="N24" s="7">
-        <v>97988</v>
+        <v>44373</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2339,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>657</v>
+        <v>371</v>
       </c>
       <c r="D25" s="7">
-        <v>443413</v>
+        <v>237967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>1021</v>
+        <v>497</v>
       </c>
       <c r="I25" s="7">
-        <v>551928</v>
+        <v>244633</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
-        <v>1678</v>
+        <v>868</v>
       </c>
       <c r="N25" s="7">
-        <v>995342</v>
+        <v>482600</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,49 +2390,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="D26" s="7">
-        <v>210897</v>
+        <v>107421</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
-        <v>578</v>
+        <v>280</v>
       </c>
       <c r="I26" s="7">
-        <v>414679</v>
+        <v>338600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
-        <v>887</v>
+        <v>443</v>
       </c>
       <c r="N26" s="7">
-        <v>625577</v>
+        <v>446021</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,10 +2441,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1024</v>
+        <v>568</v>
       </c>
       <c r="D27" s="7">
-        <v>695042</v>
+        <v>366849</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2378,10 +2456,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1703</v>
+        <v>823</v>
       </c>
       <c r="I27" s="7">
-        <v>1023863</v>
+        <v>606146</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2393,10 +2471,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2727</v>
+        <v>1391</v>
       </c>
       <c r="N27" s="7">
-        <v>1718906</v>
+        <v>972995</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2410,55 +2488,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="D28" s="7">
-        <v>250782</v>
+        <v>16112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>359</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>272105</v>
+        <v>28790</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="N28" s="7">
-        <v>522887</v>
+        <v>44901</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,25 +2545,25 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2208</v>
+        <v>286</v>
       </c>
       <c r="D29" s="7">
-        <v>2169436</v>
+        <v>175136</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
-        <v>3454</v>
+        <v>524</v>
       </c>
       <c r="I29" s="7">
-        <v>2382121</v>
+        <v>255730</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>189</v>
@@ -2497,10 +2575,10 @@
         <v>191</v>
       </c>
       <c r="M29" s="7">
-        <v>5662</v>
+        <v>810</v>
       </c>
       <c r="N29" s="7">
-        <v>4551557</v>
+        <v>430865</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>192</v>
@@ -2518,10 +2596,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>931</v>
+        <v>146</v>
       </c>
       <c r="D30" s="7">
-        <v>959260</v>
+        <v>90330</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>195</v>
@@ -2533,10 +2611,10 @@
         <v>197</v>
       </c>
       <c r="H30" s="7">
-        <v>1540</v>
+        <v>298</v>
       </c>
       <c r="I30" s="7">
-        <v>1146190</v>
+        <v>140968</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>198</v>
@@ -2548,10 +2626,10 @@
         <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>2471</v>
+        <v>444</v>
       </c>
       <c r="N30" s="7">
-        <v>2105450</v>
+        <v>231298</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>201</v>
@@ -2569,63 +2647,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>456</v>
+      </c>
+      <c r="D31" s="7">
+        <v>281577</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425488</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707064</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>230</v>
+      </c>
+      <c r="D32" s="7">
+        <v>239080</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="7">
+        <v>359</v>
+      </c>
+      <c r="I32" s="7">
+        <v>244195</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" s="7">
+        <v>589</v>
+      </c>
+      <c r="N32" s="7">
+        <v>483276</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2208</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2100565</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="7">
+        <v>3454</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2237680</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5662</v>
+      </c>
+      <c r="N33" s="7">
+        <v>4338246</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>931</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1114774</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1540</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1173237</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2471</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2288011</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3369</v>
       </c>
-      <c r="D31" s="7">
-        <v>3379478</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3454419</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5353</v>
       </c>
-      <c r="I31" s="7">
-        <v>3800416</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3655112</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8722</v>
       </c>
-      <c r="N31" s="7">
-        <v>7179893</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>7109532</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
